--- a/states.xlsx
+++ b/states.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juuso\Documents\Yliopisto\kurssit\periodi_2_2018\distributed_systems\task_1\Task1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juuso\Documents\Yliopisto\kurssit\periodi_2_2018\distributed_systems\task_1\distributed-systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{887DE632-C300-4EFD-9855-E060ABAD9FB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8362E82B-C580-4E49-B2AC-89398EBD354E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{ADB62D1F-9F86-4A7D-8DAD-DCE49E592F19}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>State</t>
   </si>
@@ -33,56 +33,37 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Initial state;
-Show clock</t>
-  </si>
-  <si>
     <t>Chrono</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Set Alarm</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Edit time</t>
-  </si>
-  <si>
     <t>Transitions</t>
   </si>
   <si>
-    <t>A -&gt; A
-A -&gt; B
-A -&gt; C
-A -&gt; D</t>
-  </si>
-  <si>
-    <t>B -&gt; B
-B -&gt; A
-B -&gt; C
-B -&gt; D</t>
-  </si>
-  <si>
-    <t>C -&gt; C
-C -&gt; A
-C -&gt; B
-C -&gt; D</t>
-  </si>
-  <si>
-    <t>D -&gt; D
-D -&gt; A
-D -&gt; B
-D -&gt; C</t>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>ChronoDisplay</t>
+  </si>
+  <si>
+    <t>TimeDisplay</t>
+  </si>
+  <si>
+    <t>Show clock</t>
+  </si>
+  <si>
+    <t>Start clock</t>
+  </si>
+  <si>
+    <t>Start -&gt; Start
+Start -&gt; TimeDisplay</t>
+  </si>
+  <si>
+    <t>TimeDisplay -&gt; TimeDisplay
+TimeDisplay -&gt; ChronoDisplay</t>
+  </si>
+  <si>
+    <t>ChronoDisplay -&gt; ChronoDisplay
+ChronoDisplay -&gt; TimeDisplay</t>
   </si>
 </sst>
 </file>
@@ -447,16 +428,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061A514D-3EAC-408D-95B0-9AF016936DA7}">
-  <dimension ref="B3:D7"/>
+  <dimension ref="B3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -467,52 +449,47 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="7" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
